--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y375"/>
+  <dimension ref="A1:Y376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
       </c>
       <c r="R374" s="2" t="inlineStr"/>
     </row>
-    <row r="375">
+    <row r="375" ht="15" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
           <t>A 40333-2023</t>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22599,6 +22599,63 @@
         <v>0</v>
       </c>
       <c r="R375" s="2" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>A 42830-2023</t>
+        </is>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C376" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R376" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 16941-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 16941-2023.xlsx", "A 16941-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 16941-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 16941-2023.png", "A 16941-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/knärot/A 16941-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/knärot/A 16941-2023.png", "A 16941-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 16941-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 16941-2023.docx", "A 16941-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 16941-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 16941-2023.docx", "A 16941-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 16941-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 16941-2023.docx", "A 16941-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 16941-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 16941-2023.docx", "A 16941-2023")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 39569-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 39569-2022.xlsx", "A 39569-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 39569-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 39569-2022.png", "A 39569-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 39569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 39569-2022.docx", "A 39569-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 39569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 39569-2022.docx", "A 39569-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 39569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 39569-2022.docx", "A 39569-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 39569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 39569-2022.docx", "A 39569-2022")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,27 +809,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 33368-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 33368-2023.xlsx", "A 33368-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 33368-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 33368-2023.png", "A 33368-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 33368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 33368-2023.docx", "A 33368-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 33368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 33368-2023.docx", "A 33368-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 33368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 33368-2023.docx", "A 33368-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 33368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 33368-2023.docx", "A 33368-2023")</f>
         <v/>
       </c>
     </row>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 22369-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 22369-2022.xlsx", "A 22369-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 22369-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 22369-2022.png", "A 22369-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 22369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 22369-2022.docx", "A 22369-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 22369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 22369-2022.docx", "A 22369-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 22369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 22369-2022.docx", "A 22369-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 22369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 22369-2022.docx", "A 22369-2022")</f>
         <v/>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -990,27 +990,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 63873-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 63873-2018.xlsx", "A 63873-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 63873-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 63873-2018.png", "A 63873-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 63873-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 63873-2018.docx", "A 63873-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 63873-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 63873-2018.docx", "A 63873-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 63873-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 63873-2018.docx", "A 63873-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 63873-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 63873-2018.docx", "A 63873-2018")</f>
         <v/>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1075,27 +1075,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 66703-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 66703-2018.xlsx", "A 66703-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 66703-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 66703-2018.png", "A 66703-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 66703-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 66703-2018.docx", "A 66703-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 66703-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 66703-2018.docx", "A 66703-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 66703-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 66703-2018.docx", "A 66703-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 66703-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 66703-2018.docx", "A 66703-2018")</f>
         <v/>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 4551-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 4551-2019.xlsx", "A 4551-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 4551-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 4551-2019.png", "A 4551-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 4551-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 4551-2019.docx", "A 4551-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 4551-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 4551-2019.docx", "A 4551-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 4551-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 4551-2019.docx", "A 4551-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 4551-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 4551-2019.docx", "A 4551-2019")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,27 +1245,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 41226-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 41226-2019.xlsx", "A 41226-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 41226-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 41226-2019.png", "A 41226-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 41226-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 41226-2019.docx", "A 41226-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 41226-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 41226-2019.docx", "A 41226-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 41226-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 41226-2019.docx", "A 41226-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 41226-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 41226-2019.docx", "A 41226-2019")</f>
         <v/>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1330,27 +1330,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 42132-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 42132-2019.xlsx", "A 42132-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 42132-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 42132-2019.png", "A 42132-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 42132-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 42132-2019.docx", "A 42132-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 42132-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 42132-2019.docx", "A 42132-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 42132-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 42132-2019.docx", "A 42132-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 42132-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 42132-2019.docx", "A 42132-2019")</f>
         <v/>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,31 +1415,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 56126-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 56126-2019.xlsx", "A 56126-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 56126-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 56126-2019.png", "A 56126-2019")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/knärot/A 56126-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/knärot/A 56126-2019.png", "A 56126-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 56126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 56126-2019.docx", "A 56126-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 56126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 56126-2019.docx", "A 56126-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 56126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 56126-2019.docx", "A 56126-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 56126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 56126-2019.docx", "A 56126-2019")</f>
         <v/>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,27 +1509,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 56911-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 56911-2020.xlsx", "A 56911-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 56911-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 56911-2020.png", "A 56911-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 56911-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 56911-2020.docx", "A 56911-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 56911-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 56911-2020.docx", "A 56911-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 56911-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 56911-2020.docx", "A 56911-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 56911-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 56911-2020.docx", "A 56911-2020")</f>
         <v/>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1594,27 +1594,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 26049-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 26049-2021.xlsx", "A 26049-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 26049-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 26049-2021.png", "A 26049-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 26049-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 26049-2021.docx", "A 26049-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 26049-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 26049-2021.docx", "A 26049-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 26049-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 26049-2021.docx", "A 26049-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 26049-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 26049-2021.docx", "A 26049-2021")</f>
         <v/>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,27 +1679,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 23211-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/artfynd/A 23211-2023.xlsx", "A 23211-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 23211-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/kartor/A 23211-2023.png", "A 23211-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 23211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomål/A 23211-2023.docx", "A 23211-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 23211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/klagomålsmail/A 23211-2023.docx", "A 23211-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 23211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsyn/A 23211-2023.docx", "A 23211-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 23211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VAGGERYD/tillsynsmail/A 23211-2023.docx", "A 23211-2023")</f>
         <v/>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43340</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43350</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43431</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43434</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43447</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43452</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43468</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43483</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43550</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43552</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43588</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43590</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43633</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43648</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43668</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43686</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43694</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43711</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43745</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43763</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43772</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43847</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43878</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43879</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43893</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43901</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43906</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43920</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43955</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43957</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43984</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44013</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44056</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44057</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44081</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44090</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44091</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44092</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44102</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44105</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44120</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44123</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44158</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44174</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44186</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44225</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44284</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44313</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44321</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44322</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44344</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44351</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44358</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44367</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44382</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44402</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44403</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44406</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44452</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44454</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44465</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44467</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44469</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44475</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44480</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44483</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44484</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44490</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44523</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44539</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44540</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44551</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44578</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44621</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44641</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44642</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44648</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44651</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44664</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44693</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44728</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44739</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44786</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44798</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44803</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44820</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44824</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44834</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44866</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44895</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44900</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44907</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44916</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44928</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44946</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44956</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44965</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44999</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45015</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45033</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45036</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45048</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45051</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45054</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45069</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45071</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45085</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45097</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45098</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45140</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45149</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45152</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45169</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>45182</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y380"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22750,14 +22750,14 @@
     <row r="378" ht="15" customHeight="1">
       <c r="A378" t="inlineStr">
         <is>
-          <t>A 43676-2023</t>
+          <t>A 43654-2023</t>
         </is>
       </c>
       <c r="B378" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22769,8 +22769,13 @@
           <t>VAGGERYD</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G378" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -22807,14 +22812,14 @@
     <row r="379" ht="15" customHeight="1">
       <c r="A379" t="inlineStr">
         <is>
-          <t>A 43654-2023</t>
+          <t>A 43676-2023</t>
         </is>
       </c>
       <c r="B379" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22826,13 +22831,8 @@
           <t>VAGGERYD</t>
         </is>
       </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G379" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -22866,7 +22866,7 @@
       </c>
       <c r="R379" s="2" t="inlineStr"/>
     </row>
-    <row r="380">
+    <row r="380" ht="15" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
           <t>A 43668-2023</t>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22922,6 +22922,63 @@
         <v>0</v>
       </c>
       <c r="R380" s="2" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>A 44002-2023</t>
+        </is>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C381" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G381" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R381" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y381"/>
+  <dimension ref="A1:Y383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
       </c>
       <c r="R380" s="2" t="inlineStr"/>
     </row>
-    <row r="381">
+    <row r="381" ht="15" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
           <t>A 44002-2023</t>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22979,6 +22979,120 @@
         <v>0</v>
       </c>
       <c r="R381" s="2" t="inlineStr"/>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>A 44808-2023</t>
+        </is>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C382" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G382" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" s="2" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>A 44804-2023</t>
+        </is>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C383" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G383" t="n">
+        <v>1</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N383" t="n">
+        <v>0</v>
+      </c>
+      <c r="O383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R383" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y383"/>
+  <dimension ref="A1:Y386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45190</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
       </c>
       <c r="R382" s="2" t="inlineStr"/>
     </row>
-    <row r="383">
+    <row r="383" ht="15" customHeight="1">
       <c r="A383" t="inlineStr">
         <is>
           <t>A 44804-2023</t>
@@ -23047,7 +23047,7 @@
         <v>45190</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23093,6 +23093,177 @@
         <v>0</v>
       </c>
       <c r="R383" s="2" t="inlineStr"/>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>A 47137-2023</t>
+        </is>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C384" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G384" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N384" t="n">
+        <v>0</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R384" s="2" t="inlineStr"/>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>A 47136-2023</t>
+        </is>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C385" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0</v>
+      </c>
+      <c r="O385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R385" s="2" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>A 47134-2023</t>
+        </is>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C386" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G386" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R386" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y386"/>
+  <dimension ref="A1:Y387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45190</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45190</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45196</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45196</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="R385" s="2" t="inlineStr"/>
     </row>
-    <row r="386">
+    <row r="386" ht="15" customHeight="1">
       <c r="A386" t="inlineStr">
         <is>
           <t>A 47134-2023</t>
@@ -23218,7 +23218,7 @@
         <v>45196</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23264,6 +23264,63 @@
         <v>0</v>
       </c>
       <c r="R386" s="2" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>A 47121-2023</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C387" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>VAGGERYD</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R387" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45190</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45190</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45196</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45196</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45196</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45201</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45190</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45190</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45196</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45196</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45196</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45201</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45190</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45190</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45196</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45196</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45196</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45201</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -572,7 +572,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43430</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43479</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>43698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44138</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45071</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45187</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43320</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43335</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43340</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43350</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43357</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43405</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43434</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43452</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43468</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43474</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43483</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43487</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43552</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43564</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43590</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43609</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43633</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43668</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43675</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43685</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43694</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43711</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43726</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43745</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43752</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43754</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43763</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43763</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43772</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43783</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43854</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43873</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43878</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43879</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43893</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43901</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>43902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>43906</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43914</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43920</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>43935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>43955</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43984</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43984</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43984</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44012</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44013</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44040</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44060</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44077</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44081</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44081</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44091</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44092</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44102</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44105</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44120</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44123</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44146</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44158</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44159</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44207</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44225</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44253</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44280</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44313</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44313</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44313</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44313</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44321</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44344</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>44344</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44351</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44355</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44362</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44362</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44367</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44382</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44402</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44403</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44438</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44452</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44454</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44465</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44465</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44467</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44469</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44475</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44480</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44480</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44483</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44483</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44484</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44484</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44490</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44490</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44490</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44523</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44539</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44540</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44550</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44550</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44550</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44617</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44621</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44631</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44641</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44642</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44648</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44648</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44648</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44650</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44651</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44664</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44680</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44693</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44701</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44728</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44739</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44749</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44786</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44798</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44803</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44824</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44824</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44834</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44868</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44868</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44895</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44900</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44900</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44907</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44910</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44916</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44916</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44916</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44916</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44930</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44935</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44935</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44935</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44953</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44953</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44953</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44956</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44960</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44965</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44965</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44965</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44994</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45012</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45012</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45015</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45033</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45036</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45040</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45040</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45040</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45040</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45048</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45051</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45051</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45054</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45054</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45069</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45071</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45071</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45085</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45096</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45096</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45118</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45149</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45149</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45152</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>45152</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45152</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45152</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45169</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45187</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45188</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45190</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45190</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45196</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45196</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45196</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45201</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
